--- a/Result/mobility.xlsx
+++ b/Result/mobility.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazi0302/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazi0302/Desktop/SDSU/MSCSDS/COVID-19-Modeling-and-Parameter-Fitting/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4509F310-E922-1F43-9BED-E39623290EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40F2A58-C2BC-264D-BEE9-EAF0F40A4EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35740" yWindow="1860" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35880" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:H23"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -421,8 +421,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>511660</v>
+      </c>
       <c r="F1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1">
+        <v>535219</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -579,8 +585,14 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9">
+        <v>488330</v>
+      </c>
       <c r="F9" t="s">
         <v>7</v>
+      </c>
+      <c r="H9">
+        <v>602000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -737,8 +749,14 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
+      <c r="C17">
+        <v>646380</v>
+      </c>
       <c r="F17" t="s">
         <v>8</v>
+      </c>
+      <c r="G17">
+        <v>500076</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">

--- a/Result/mobility.xlsx
+++ b/Result/mobility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazi0302/Desktop/SDSU/MSCSDS/COVID-19-Modeling-and-Parameter-Fitting/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40F2A58-C2BC-264D-BEE9-EAF0F40A4EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADAB031-4ACB-2B4C-AAD3-E8DBDF42DA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35880" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35840" yWindow="1720" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,11 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,22 +416,26 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>511660</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>535219</v>
       </c>
     </row>
@@ -585,13 +593,13 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>488330</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>602000</v>
       </c>
     </row>
@@ -749,13 +757,13 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>646380</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>500076</v>
       </c>
     </row>
